--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA5573F-A493-435B-9444-B4508B9D8382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{674992C7-FCBD-49BB-B822-BC938B17528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>5.43</v>
+        <v>5.2300000190734863</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>155834.83199784</v>
+        <v>150095.05972762738</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.1000000000000001</v>
+        <v>1.0904093186060588</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.70867105585090151</v>
+        <v>0.68857252063343488</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.8495106565318209E-2</v>
+        <v>7.0494389531563742E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.0515653775322291E-2</v>
+        <v>4.1698252949499179E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2481,16 +2481,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>1.0895977051425896</v>
+        <v>1.080097719290233</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>1.815996175237649</v>
+        <v>1.8001628654837214</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>1.4527969401901193</v>
+        <v>1.4401302923869772</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -8467,11 +8467,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>115393766.74897848</v>
+        <v>114387671.42921828</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>4.0208478772938143</v>
+        <v>3.9857909037259689</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2418.9</v>
+        <v>2397.8100916147232</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.428556588800415E-5</v>
+        <v>8.3550696789331513E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8495,11 +8495,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-73697725.914999977</v>
+        <v>-73055170.088901103</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5679666515378066</v>
+        <v>-2.5455770606422026</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8514,19 +8514,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>41693621.933978498</v>
+        <v>41330103.53022556</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.4527969401901193</v>
+        <v>1.4401302923869772</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>1.0895977051425896</v>
+        <v>1.080097719290233</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.815996175237649</v>
+        <v>1.8001628654837214</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8550,19 +8550,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>68256757.830918923</v>
+        <v>67661640.724246442</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.3783783783783785</v>
+        <v>2.3576417699590464</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.7837837837837838</v>
+        <v>1.7682313274692847</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.9729729729729732</v>
+        <v>2.9470522124488081</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674992C7-FCBD-49BB-B822-BC938B17528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E330C9-2F76-1C4F-9028-12E49B2A4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1840" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -808,16 +819,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1279,7 +1290,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1335,8 +1346,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,14 +1370,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1391,7 +1402,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1419,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1416,7 +1427,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1463,7 +1474,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1548,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,10 +1627,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,16 +1641,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,7 +1714,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,10 +1723,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1741,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,7 +1755,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,13 +1763,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,9 +1779,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2101,19 +2112,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2122,7 +2133,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2137,7 +2148,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2174,7 +2185,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2194,7 +2205,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2229,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2233,15 +2244,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0904093186060588</v>
+        <v>1.0905426343282063</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2260,12 +2271,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>216</v>
@@ -2274,7 +2285,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2286,8 +2297,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2332,8 +2343,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2348,7 +2359,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>3.2519270021073965E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2405,10 +2416,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68857252063343488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.68848834460954589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2421,10 +2432,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.0494389531563742E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.0503008322954627E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2453,11 +2464,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1698252949499179E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.1703351065050284E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2475,919 +2486,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>1.080097719290233</v>
+        <v>1.0802297742946978</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>1.8001628654837214</v>
+        <v>1.8003829571578298</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>1.4401302923869772</v>
+        <v>1.4403063657262638</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3451,7 +3462,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3459,7 +3470,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3467,7 +3478,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3484,7 +3495,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3510,13 +3521,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3566,7 +3577,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3588,7 +3599,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3639,7 +3650,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3661,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3712,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3734,7 +3745,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3785,7 +3796,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3807,7 +3818,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3858,7 +3869,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3880,7 +3891,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3902,7 +3913,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3924,7 +3935,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3946,7 +3957,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3968,7 +3979,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4019,7 +4030,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4070,7 +4081,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4121,7 +4132,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4172,7 +4183,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4223,7 +4234,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4274,7 +4285,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4325,7 +4336,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4348,7 +4359,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4371,7 +4382,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4394,7 +4405,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4417,7 +4428,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4440,7 +4451,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4463,7 +4474,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4486,7 +4497,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4537,7 +4548,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4560,7 +4571,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4583,7 +4594,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4606,7 +4617,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4657,7 +4668,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4708,7 +4719,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4726,7 +4737,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4777,7 +4788,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4828,7 +4839,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4879,7 +4890,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4930,7 +4941,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4981,7 +4992,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5032,7 +5043,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5083,7 +5094,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5101,7 +5112,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5152,7 +5163,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5203,7 +5214,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5220,7 +5231,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5270,7 +5281,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5320,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5370,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5420,1260 +5431,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6712,7 +6723,7 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6721,11 +6732,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6741,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6764,7 +6775,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +6791,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6795,7 +6806,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6820,7 +6831,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6843,13 +6854,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6868,7 +6879,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6893,7 +6904,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +6929,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6943,7 +6954,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6968,7 +6979,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6993,7 +7004,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7018,7 +7029,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7038,7 +7049,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7058,7 +7069,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7077,7 +7088,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7123,7 +7134,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7142,7 +7153,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7166,7 +7177,7 @@
         <v>242576846</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7175,7 +7186,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7197,7 +7208,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>0.77190298581674921</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7292,7 +7303,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7321,7 +7332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7333,7 +7344,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7356,7 +7367,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7380,7 +7391,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7402,7 +7413,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7427,7 +7438,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7452,7 +7463,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7475,7 +7486,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7499,7 +7510,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7523,7 +7534,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7542,7 +7553,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7561,7 +7572,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7580,7 +7591,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7599,7 +7610,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7623,7 +7634,7 @@
         <v>16013360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7632,7 +7643,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7651,7 +7662,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7670,7 +7681,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7700,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7756,7 +7767,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7783,20 +7794,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7813,7 +7824,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7834,7 +7845,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7843,7 +7854,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7854,7 +7865,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7869,7 +7880,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7884,7 +7895,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7898,7 +7909,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7907,7 +7918,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7963,7 +7974,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7984,7 +7995,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -7999,7 +8010,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8020,7 +8031,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8030,7 +8041,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8044,7 +8055,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8065,7 +8076,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8080,7 +8091,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8101,7 +8112,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8115,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8129,7 +8140,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8144,7 +8155,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>0.78463553343209413</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8180,7 +8191,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v>0.15995376005296372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8216,7 +8227,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8237,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8258,7 +8269,7 @@
         <v>1.7206411836009534E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8282,7 +8293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>9.386945223960261E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8324,7 +8335,7 @@
         <v>5.5229255451358046E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8335,7 +8346,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8356,7 +8367,7 @@
         <v>4.1421941588518536E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8371,7 +8382,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8391,11 +8402,11 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8405,7 +8416,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8415,7 +8426,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8432,7 +8443,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8450,7 +8461,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8461,45 +8472,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>114387671.42921828</v>
+        <v>114401656.70498687</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>3.9857909037259689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.9862782148517932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2397.8100916147232</v>
+        <v>2398.1032528877258</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3550696789331513E-5</v>
+        <v>8.3560911872134232E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-73055170.088901103</v>
+        <v>-73064101.966674715</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5455770606422026</v>
+        <v>-2.5458882882136571</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8508,28 +8519,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>41330103.53022556</v>
+        <v>41335156.635059267</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.4401302923869772</v>
+        <v>1.4403063657262638</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>1.080097719290233</v>
+        <v>1.0802297742946978</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.8001628654837214</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.8003829571578298</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8544,28 +8555,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>67661640.724246442</v>
+        <v>67669913.177847952</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.3576417699590464</v>
+        <v>2.3579300201690949</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.7682313274692847</v>
+        <v>1.7684475151268213</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.9470522124488081</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.9474125252113685</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E330C9-2F76-1C4F-9028-12E49B2A4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3F2E04-16DB-3E4E-8BBC-4BB620752C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1840" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>5.2300000190734863</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>150095.05972762738</v>
+        <v>152103.98514027393</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2244,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0905426343282063</v>
+        <v>1.0919816493988037</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2293,7 +2293,7 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
@@ -2303,7 +2303,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>206</v>
@@ -2339,7 +2339,7 @@
         <v>205</v>
       </c>
       <c r="C17" s="194">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="189"/>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68848834460954589</v>
+        <v>0.69678388185040518</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.0503008322954627E-2</v>
+        <v>6.9663637111349527E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1703351065050284E-2</v>
+        <v>4.12068532113542E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2492,16 +2492,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>1.0802297742946978</v>
+        <v>2.1602510004199851</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>1.8003829571578298</v>
+        <v>3.6004183340333085</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>1.4403063657262638</v>
+        <v>2.8803346672266468</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="C92" s="176">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D92" s="206" t="s">
         <v>168</v>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>114401656.70498687</v>
+        <v>155825247.41179621</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>3.9862782148517932</v>
+        <v>5.4296660290799519</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8491,11 +8491,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2398.1032528877258</v>
+        <v>2401.2676470279694</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3560911872134232E-5</v>
+        <v>8.3671173871722107E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8506,11 +8506,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-73064101.966674715</v>
+        <v>-73160513.001456931</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5458882882136571</v>
+        <v>-2.5492476906794335</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8525,19 +8525,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>41335156.635059267</v>
+        <v>82662333.142692253</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.4403063657262638</v>
+        <v>2.8803346672266468</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>1.0802297742946978</v>
+        <v>2.1602510004199851</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.8003829571578298</v>
+        <v>3.6004183340333085</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8561,19 +8561,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>67669913.177847952</v>
+        <v>92172449.83143039</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.3579300201690949</v>
+        <v>3.211710733525893</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.7684475151268213</v>
+        <v>2.4087830501444198</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.9474125252113685</v>
+        <v>4.0146384169073661</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3F2E04-16DB-3E4E-8BBC-4BB620752C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D3F6D1-72CF-4254-B641-A55B2B563603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1840" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -819,16 +808,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1290,7 +1279,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1346,8 +1335,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1370,14 +1359,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1402,7 +1391,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1408,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1427,7 +1416,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1474,7 +1463,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1537,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1627,10 +1616,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,16 +1630,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1714,7 +1703,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,10 +1712,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1730,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,7 +1744,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1763,13 +1752,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,9 +1768,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2112,19 +2101,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2122,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2137,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2161,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>5.3000001907348633</v>
+        <v>5.1700000762939453</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2185,7 +2174,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2199,13 +2188,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>152103.98514027393</v>
+        <v>148373.12952450957</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2218,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2244,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0919816493988037</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2297,8 +2286,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2343,8 +2332,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2359,7 +2348,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2375,7 +2364,7 @@
         <v>3.2519270021073965E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2391,7 +2380,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2403,7 +2392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2416,10 +2405,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.69678388185040518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.68240614072744987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2432,10 +2421,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.9663637111349527E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.1131393159093712E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2451,7 +2440,7 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2464,11 +2453,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.12068532113542E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.2075048018823107E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2486,919 +2475,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>2.1602510004199851</v>
+        <v>2.1516619947230642</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>3.6004183340333085</v>
+        <v>3.5861033245384406</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>2.8803346672266468</v>
+        <v>2.8688826596307524</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3462,7 +3451,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3470,7 +3459,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3478,7 +3467,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3495,7 +3484,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3521,13 +3510,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3577,7 +3566,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3599,7 +3588,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3650,7 +3639,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3672,7 +3661,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3723,7 +3712,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3745,7 +3734,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3796,7 +3785,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3818,7 +3807,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3869,7 +3858,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3891,7 +3880,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3913,7 +3902,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3935,7 +3924,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3957,7 +3946,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3979,7 +3968,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4030,7 +4019,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4081,7 +4070,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4132,7 +4121,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4183,7 +4172,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4234,7 +4223,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4285,7 +4274,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4336,7 +4325,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4359,7 +4348,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4382,7 +4371,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4405,7 +4394,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4428,7 +4417,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4451,7 +4440,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4474,7 +4463,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4497,7 +4486,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4548,7 +4537,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4571,7 +4560,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4594,7 +4583,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4617,7 +4606,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4668,7 +4657,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4719,7 +4708,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4737,7 +4726,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4788,7 +4777,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4839,7 +4828,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4890,7 +4879,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4941,7 +4930,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4992,7 +4981,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5043,7 +5032,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5094,7 +5083,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5112,7 +5101,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5163,7 +5152,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5214,7 +5203,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5231,7 +5220,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5281,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5331,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5381,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5431,1260 +5420,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6723,7 +6712,7 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6732,11 +6721,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6752,7 +6741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6764,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6791,7 +6780,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6806,7 +6795,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6831,7 +6820,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6854,13 +6843,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6879,7 +6868,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6904,7 +6893,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6929,7 +6918,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6954,7 +6943,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6979,7 +6968,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7004,7 +6993,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7029,7 +7018,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7049,7 +7038,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7069,7 +7058,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7088,7 +7077,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7110,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7134,7 +7123,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7153,7 +7142,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7177,7 +7166,7 @@
         <v>242576846</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7186,7 +7175,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7208,7 +7197,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7237,7 +7226,7 @@
         <v>0.77190298581674921</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7270,7 +7259,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7303,7 +7292,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +7321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7344,7 +7333,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7367,7 +7356,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7391,7 +7380,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7413,7 +7402,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7438,7 +7427,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7463,7 +7452,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7486,7 +7475,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7510,7 +7499,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7534,7 +7523,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7553,7 +7542,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7572,7 +7561,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7591,7 +7580,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7610,7 +7599,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7634,7 +7623,7 @@
         <v>16013360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7643,7 +7632,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7662,7 +7651,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7681,7 +7670,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7711,7 +7700,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7741,7 +7730,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7767,7 +7756,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7794,20 +7783,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7824,7 +7813,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7845,7 +7834,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7854,7 +7843,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7865,7 +7854,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7880,7 +7869,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7895,7 +7884,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7909,7 +7898,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7918,7 +7907,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7932,7 +7921,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7953,7 +7942,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7974,7 +7963,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7995,7 +7984,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8010,7 +7999,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8031,7 +8020,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8041,7 +8030,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8055,7 +8044,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8076,7 +8065,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8091,7 +8080,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8112,7 +8101,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8126,7 +8115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8140,7 +8129,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8155,7 +8144,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8176,7 +8165,7 @@
         <v>0.78463553343209413</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8191,7 +8180,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8212,7 +8201,7 @@
         <v>0.15995376005296372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8227,7 +8216,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8248,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8269,7 +8258,7 @@
         <v>1.7206411836009534E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8293,7 +8282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8314,7 +8303,7 @@
         <v>9.386945223960261E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8335,7 +8324,7 @@
         <v>5.5229255451358046E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8346,7 +8335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8367,7 +8356,7 @@
         <v>4.1421941588518536E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8382,7 +8371,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8402,11 +8391,11 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8416,7 +8405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8426,7 +8415,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8443,7 +8432,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8461,7 +8450,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8472,45 +8461,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>155825247.41179621</v>
+        <v>155205697.21254447</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>5.4296660290799519</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5.4080780596971918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2401.2676470279694</v>
+        <v>2391.7203761339188</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3671173871722107E-5</v>
+        <v>8.3338503182569539E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-73160513.001456931</v>
+        <v>-72869631.959005401</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5492476906794335</v>
+        <v>-2.539112061563257</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8519,28 +8508,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>82662333.142692253</v>
+        <v>82333673.533162937</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.8803346672266468</v>
+        <v>2.8688826596307524</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>2.1602510004199851</v>
+        <v>2.1516619947230642</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>3.6004183340333085</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.5861033245384406</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8555,28 +8544,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>92172449.83143039</v>
+        <v>91805978.668335304</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>3.211710733525893</v>
+        <v>3.1989411980498068</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.4087830501444198</v>
+        <v>2.399205898537355</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>4.0146384169073661</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.9986764975622586</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D3F6D1-72CF-4254-B641-A55B2B563603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE8471B-3F09-4946-84E6-5CC7EA791178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -808,16 +819,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1279,7 +1290,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1335,8 +1346,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,14 +1370,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1391,7 +1402,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1419,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1416,7 +1427,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1463,7 +1474,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1548,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,10 +1627,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,16 +1641,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,7 +1714,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,10 +1723,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1741,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,7 +1755,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,13 +1763,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,9 +1779,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2101,19 +2112,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2122,7 +2133,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2137,7 +2148,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2174,7 +2185,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2194,7 +2205,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2229,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2233,15 +2244,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2286,8 +2297,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2332,8 +2343,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2348,7 +2359,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>3.2519270021073965E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2405,10 +2416,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68240614072744987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.68303414164127163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2421,10 +2432,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.1131393159093712E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.1065992943816061E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2453,11 +2464,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.2075048018823107E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.2036363029312296E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2475,919 +2486,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>2.1516619947230642</v>
+        <v>2.1496836958115706</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>3.5861033245384406</v>
+        <v>3.5828061596859513</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>2.8688826596307524</v>
+        <v>2.8662449277487609</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3451,7 +3462,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3459,7 +3470,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3467,7 +3478,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3484,7 +3495,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3510,13 +3521,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3566,7 +3577,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3588,7 +3599,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3639,7 +3650,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3661,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3712,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3734,7 +3745,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3785,7 +3796,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3807,7 +3818,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3858,7 +3869,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3880,7 +3891,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3902,7 +3913,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3924,7 +3935,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3946,7 +3957,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3968,7 +3979,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4019,7 +4030,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4070,7 +4081,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4121,7 +4132,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4172,7 +4183,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4223,7 +4234,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4274,7 +4285,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4325,7 +4336,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4348,7 +4359,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4371,7 +4382,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4394,7 +4405,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4417,7 +4428,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4440,7 +4451,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4463,7 +4474,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4486,7 +4497,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4537,7 +4548,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4560,7 +4571,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4583,7 +4594,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4606,7 +4617,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4657,7 +4668,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4708,7 +4719,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4726,7 +4737,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4777,7 +4788,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4828,7 +4839,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4879,7 +4890,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4930,7 +4941,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4981,7 +4992,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5032,7 +5043,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5083,7 +5094,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5101,7 +5112,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5152,7 +5163,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5203,7 +5214,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5220,7 +5231,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5270,7 +5281,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5320,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5370,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5420,1260 +5431,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6712,7 +6723,7 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6721,11 +6732,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6741,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6764,7 +6775,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +6791,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6795,7 +6806,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6820,7 +6831,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6843,13 +6854,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6868,7 +6879,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6893,7 +6904,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +6929,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6943,7 +6954,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6968,7 +6979,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6993,7 +7004,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7018,7 +7029,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7038,7 +7049,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7058,7 +7069,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7077,7 +7088,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7123,7 +7134,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7142,7 +7153,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7166,7 +7177,7 @@
         <v>242576846</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7175,7 +7186,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7197,7 +7208,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>0.77190298581674921</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7292,7 +7303,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7321,7 +7332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7333,7 +7344,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7356,7 +7367,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7380,7 +7391,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7402,7 +7413,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7427,7 +7438,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7452,7 +7463,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7475,7 +7486,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7499,7 +7510,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7523,7 +7534,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7542,7 +7553,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7561,7 +7572,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7580,7 +7591,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7599,7 +7610,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7623,7 +7634,7 @@
         <v>16013360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7632,7 +7643,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7651,7 +7662,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7670,7 +7681,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7700,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7756,7 +7767,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7783,20 +7794,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7813,7 +7824,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7834,7 +7845,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7843,7 +7854,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7854,7 +7865,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7869,7 +7880,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7884,7 +7895,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7898,7 +7909,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7907,7 +7918,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7963,7 +7974,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7984,7 +7995,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -7999,7 +8010,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8020,7 +8031,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8030,7 +8041,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8044,7 +8055,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8065,7 +8076,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8080,7 +8091,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8101,7 +8112,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8115,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8129,7 +8140,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8144,7 +8155,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>0.78463553343209413</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8180,7 +8191,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v>0.15995376005296372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8216,7 +8227,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8237,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8258,7 +8269,7 @@
         <v>1.7206411836009534E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8282,7 +8293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>9.386945223960261E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8324,7 +8335,7 @@
         <v>5.5229255451358046E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8335,7 +8346,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8356,7 +8367,7 @@
         <v>4.1421941588518536E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8371,7 +8382,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8391,11 +8402,11 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8405,7 +8416,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8415,7 +8426,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8432,7 +8443,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8450,7 +8461,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8461,45 +8472,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>155205697.21254447</v>
+        <v>155062996.70353973</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>5.4080780596971918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5.4031057197269696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2391.7203761339188</v>
+        <v>2389.5213607549667</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3338503182569539E-5</v>
+        <v>8.3261879404979977E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72869631.959005401</v>
+        <v>-72802633.557797894</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.539112061563257</v>
+        <v>-2.5367775300988038</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8508,28 +8519,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>82333673.533162937</v>
+        <v>82257973.62438108</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.8688826596307524</v>
+        <v>2.8662449277487609</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>2.1516619947230642</v>
+        <v>2.1496836958115706</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>3.5861033245384406</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.5828061596859513</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8544,28 +8555,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>91805978.668335304</v>
+        <v>91721569.654227331</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>3.1989411980498068</v>
+        <v>3.1960000010097724</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.399205898537355</v>
+        <v>2.3970000007573296</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.9986764975622586</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.9950000012622153</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE8471B-3F09-4946-84E6-5CC7EA791178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B484A272-BE8E-4067-AD1E-962EFB0A7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -819,16 +808,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1290,7 +1279,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1346,8 +1335,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1370,14 +1359,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1402,7 +1391,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1408,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1427,7 +1416,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1474,7 +1463,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1537,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1627,10 +1616,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,16 +1630,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1714,7 +1703,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,10 +1712,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1730,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,7 +1744,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1763,13 +1752,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,9 +1768,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2112,19 +2101,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2122,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2137,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2185,7 +2174,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2205,7 +2194,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2218,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2244,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2297,8 +2286,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2343,8 +2332,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2359,7 +2348,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2375,7 +2364,7 @@
         <v>3.2519270021073965E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2391,7 +2380,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2403,7 +2392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2416,10 +2405,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68303414164127163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.68434175429362798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2432,10 +2421,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.1065992943816061E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.0930202907708267E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2451,7 +2440,7 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2464,11 +2453,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.2036363029312296E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.1956041640457534E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2486,919 +2475,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>2.1496836958115706</v>
+        <v>2.1455761668151725</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>3.5828061596859513</v>
+        <v>3.5759602780252875</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>2.8662449277487609</v>
+        <v>2.86076822242023</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3462,7 +3451,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3470,7 +3459,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3478,7 +3467,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3495,7 +3484,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3521,13 +3510,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3577,7 +3566,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3599,7 +3588,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3650,7 +3639,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3672,7 +3661,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3723,7 +3712,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3745,7 +3734,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3796,7 +3785,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3818,7 +3807,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3869,7 +3858,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3891,7 +3880,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3913,7 +3902,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3935,7 +3924,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3957,7 +3946,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3979,7 +3968,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4030,7 +4019,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4081,7 +4070,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4132,7 +4121,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4183,7 +4172,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4234,7 +4223,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4285,7 +4274,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4336,7 +4325,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4359,7 +4348,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4382,7 +4371,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4405,7 +4394,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4428,7 +4417,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4451,7 +4440,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4474,7 +4463,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4497,7 +4486,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4548,7 +4537,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4571,7 +4560,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4594,7 +4583,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4617,7 +4606,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4668,7 +4657,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4719,7 +4708,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4737,7 +4726,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4788,7 +4777,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4839,7 +4828,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4890,7 +4879,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4941,7 +4930,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4992,7 +4981,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5043,7 +5032,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5094,7 +5083,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5112,7 +5101,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5163,7 +5152,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5214,7 +5203,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5231,7 +5220,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5281,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5331,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5381,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5431,1260 +5420,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6723,7 +6712,7 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6732,11 +6721,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6752,7 +6741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6764,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6791,7 +6780,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6806,7 +6795,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6831,7 +6820,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6854,13 +6843,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6879,7 +6868,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6904,7 +6893,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6929,7 +6918,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6954,7 +6943,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6979,7 +6968,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7004,7 +6993,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7029,7 +7018,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7049,7 +7038,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7069,7 +7058,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7088,7 +7077,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7110,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7134,7 +7123,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7153,7 +7142,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7177,7 +7166,7 @@
         <v>242576846</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7186,7 +7175,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7208,7 +7197,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7237,7 +7226,7 @@
         <v>0.77190298581674921</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7270,7 +7259,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7303,7 +7292,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +7321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7344,7 +7333,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7367,7 +7356,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7391,7 +7380,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7413,7 +7402,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7438,7 +7427,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7463,7 +7452,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7486,7 +7475,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7510,7 +7499,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7534,7 +7523,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7553,7 +7542,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7572,7 +7561,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7591,7 +7580,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7610,7 +7599,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7634,7 +7623,7 @@
         <v>16013360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7643,7 +7632,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7662,7 +7651,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7681,7 +7670,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7711,7 +7700,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7741,7 +7730,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7767,7 +7756,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7794,20 +7783,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7824,7 +7813,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7845,7 +7834,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7854,7 +7843,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7865,7 +7854,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7880,7 +7869,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7895,7 +7884,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7909,7 +7898,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7918,7 +7907,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7932,7 +7921,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7953,7 +7942,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7974,7 +7963,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7995,7 +7984,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8010,7 +7999,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8031,7 +8020,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8041,7 +8030,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8055,7 +8044,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8076,7 +8065,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8091,7 +8080,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8112,7 +8101,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8126,7 +8115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8140,7 +8129,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8155,7 +8144,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8176,7 +8165,7 @@
         <v>0.78463553343209413</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8191,7 +8180,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8212,7 +8201,7 @@
         <v>0.15995376005296372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8227,7 +8216,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8248,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8269,7 +8258,7 @@
         <v>1.7206411836009534E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8293,7 +8282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8314,7 +8303,7 @@
         <v>9.386945223960261E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8335,7 +8324,7 @@
         <v>5.5229255451358046E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8346,7 +8335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8367,7 +8356,7 @@
         <v>4.1421941588518536E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8382,7 +8371,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8402,11 +8391,11 @@
         <v>0.59151165399948402</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8416,7 +8405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8426,7 +8415,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8443,7 +8432,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8461,7 +8450,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8472,45 +8461,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>155062996.70353973</v>
+        <v>154766708.57684034</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>5.4031057197269696</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5.3927816830058344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2389.5213607549667</v>
+        <v>2384.9555596113205</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3261879404979977E-5</v>
+        <v>8.3102785960387679E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72802633.557797894</v>
+        <v>-72663525.218773186</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5367775300988038</v>
+        <v>-2.5319303577996441</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8519,28 +8508,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>82257973.62438108</v>
+        <v>82100798.402507544</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.8662449277487609</v>
+        <v>2.86076822242023</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>2.1496836958115706</v>
+        <v>2.1455761668151725</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>3.5828061596859513</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.5759602780252875</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8555,28 +8544,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>91721569.654227331</v>
+        <v>91546311.774342969</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>3.1960000010097724</v>
+        <v>3.1898932129729025</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3970000007573296</v>
+        <v>2.3924199097296768</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.9950000012622153</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.9873665162161283</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B484A272-BE8E-4067-AD1E-962EFB0A7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0891FFCA-652E-4048-B6E9-B348BE4D55D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>5.1700000762939453</v>
+        <v>4.9899997711181641</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>148373.12952450957</v>
+        <v>143207.32523047132</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68434175429362798</v>
+        <v>0.66069826345911908</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.0930202907708267E-2</v>
+        <v>7.3468483534568169E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1956041640457534E-2</v>
+        <v>4.3457464212366272E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2481,16 +2481,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>2.1455761668151725</v>
+        <v>2.1449826614197276</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>3.5759602780252875</v>
+        <v>3.5749711023662121</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>2.86076822242023</v>
+        <v>2.8599768818929698</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -8467,11 +8467,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>154766708.57684034</v>
+        <v>154723897.29006511</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>5.3927816830058344</v>
+        <v>5.391289941498437</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2384.9555596113205</v>
+        <v>2384.295837521553</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>8.3102785960387679E-5</v>
+        <v>8.3079798218163993E-5</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8495,11 +8495,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72663525.218773186</v>
+        <v>-72643425.165959209</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.5319303577996441</v>
+        <v>-2.5312299798072488</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8514,19 +8514,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>82100798.402507544</v>
+        <v>82078087.828268379</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.86076822242023</v>
+        <v>2.8599768818929698</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>2.1455761668151725</v>
+        <v>2.1449826614197276</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>3.5759602780252875</v>
+        <v>3.5749711023662121</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8550,19 +8550,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>91546311.774342969</v>
+        <v>91520988.399292693</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>3.1898932129729025</v>
+        <v>3.1890108304865219</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3924199097296768</v>
+        <v>2.3917581228648914</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.9873665162161283</v>
+        <v>3.9862635381081524</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47CA38-91E2-4D82-AA70-959FF35C8A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3DC1E1-9A97-4548-A414-ADB72A5D063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1947,6 +1947,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,9 +1991,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2415,17 +2415,17 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="246" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>4.9899997711181596</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2435,40 +2435,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="248" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="252">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="250">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>143207.32523047115</v>
-      </c>
-      <c r="H5" s="243"/>
+        <v>140624.43676813698</v>
+      </c>
+      <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2491,11 +2491,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="245" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2564,7 +2564,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.66330660376909312</v>
+        <v>0.6519001386024329</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.3320961990607891E-2</v>
+        <v>7.4603877807629879E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3286575131765731E-2</v>
+        <v>4.4043971521468939E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2749,11 +2749,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="242" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="242"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.6591767650603333</v>
+        <v>1.8486505043359853</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.8390503492973025</v>
+        <v>3.2830696896988121</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2712402794378419</v>
-      </c>
-      <c r="G29" s="242">
+        <v>2.6264557517590497</v>
+      </c>
+      <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.2712402794378419</v>
-      </c>
-      <c r="H29" s="242"/>
+        <v>2.6264557517590497</v>
+      </c>
+      <c r="H29" s="243"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3769,7 +3769,7 @@
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="241" t="s">
         <v>248</v>
       </c>
       <c r="E5" s="231">
@@ -8809,11 +8809,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-142149878.64000002</v>
+        <v>-142028435.69177228</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7110814291179195</v>
+        <v>1.710473930708436</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9936,11 +9936,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="253">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9951,11 +9951,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="252">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="251"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9967,11 +9967,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="252">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10185,19 +10185,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="256">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="256"/>
+      <c r="E72" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="254"/>
+      <c r="H72" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="254"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10207,18 +10207,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="255"/>
+      <c r="E73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="255"/>
+      <c r="H73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10573,17 +10573,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3320961990607891E-2</v>
+        <v>7.4603877807629879E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3320961990607891E-2</v>
+        <v>7.4603877807629879E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3320961990607891E-2</v>
+        <v>7.4603877807629879E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10624,17 +10624,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3286575131765731E-2</v>
+        <v>4.4043971521468939E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3286575131765731E-2</v>
+        <v>4.4043971521468939E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3286575131765731E-2</v>
+        <v>4.4043971521468939E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10664,15 +10664,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="254"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10692,14 +10692,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>6.0320230684312577</v>
+        <v>6.7423989346922815</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>6.0320230684312577</v>
+        <v>6.7423989346922815</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10717,14 +10717,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.0899973256824991</v>
+        <v>3.445810970966412</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.0899973256824991</v>
+        <v>3.445810970966412</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10764,19 +10764,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>127242642.39276835</v>
+        <v>147488375.46096879</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>3.2389000593191564</v>
+        <v>3.6172440380725668</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>4.4337170280538372</v>
+        <v>5.1391711884038935</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>4.4337170280538372</v>
+        <v>5.1391711884038935</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10787,13 +10787,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42678054.359999999</v>
+        <v>42641593.205085993</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4870990792226229</v>
+        <v>1.4858286054226075</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10804,16 +10804,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-99471824.280000016</v>
+        <v>-99386842.486686319</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-3.985962565320889</v>
+        <v>-3.9825572367332809</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4660544046268602</v>
+        <v>-3.463093249333288</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-14907236.247231662</v>
+        <v>5459939.7691964805</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10836,11 +10836,11 @@
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
+        <v>0.19024933364799873</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>0</v>
+        <v>0.2378116670599984</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10878,23 +10878,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>65182016.090777762</v>
+        <v>75376296.652878836</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.6591767650603333</v>
+        <v>1.8486505043359853</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.2712402794378419</v>
+        <v>2.6264557517590497</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.2712402794378419</v>
+        <v>2.6264557517590497</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.8390503492973025</v>
+        <v>3.2830696896988121</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10930,23 +10930,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>32591008.045388881</v>
+        <v>37688148.326439418</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.82958838253016665</v>
+        <v>0.92432525216799266</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.135620139718921</v>
+        <v>1.3132278758795248</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.135620139718921</v>
+        <v>1.4083525427035242</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.4195251746486512</v>
+        <v>1.7604406783794051</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3DC1E1-9A97-4548-A414-ADB72A5D063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E67BA0-7756-4032-AFFC-7789AE549D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>4.9000000953674316</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>140624.43676813698</v>
+        <v>138041.53462111784</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6519001386024329</v>
+        <v>0.64182839648868761</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.4603877807629879E-2</v>
+        <v>7.5774581724867757E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4043971521468939E-2</v>
+        <v>4.4735121251297381E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8486505043359853</v>
+        <v>1.8492812475524429</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2830696896988121</v>
+        <v>3.2841898440660526</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6264557517590497</v>
+        <v>2.6273518752528422</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6264557517590497</v>
+        <v>2.6273518752528422</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8809,11 +8809,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-142028435.69177228</v>
+        <v>-141607557.54362279</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.710473930708436</v>
+        <v>1.7083685568739035</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10573,17 +10573,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4603877807629879E-2</v>
+        <v>7.5774581724867757E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4603877807629879E-2</v>
+        <v>7.5774581724867757E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4603877807629879E-2</v>
+        <v>7.5774581724867757E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10624,17 +10624,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4043971521468939E-2</v>
+        <v>4.4735121251297381E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4043971521468939E-2</v>
+        <v>4.4735121251297381E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4043971521468939E-2</v>
+        <v>4.4735121251297381E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10692,14 +10692,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>6.7423989346922815</v>
+        <v>6.7792058467045431</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>6.7423989346922815</v>
+        <v>6.7792058467045431</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10717,14 +10717,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.445810970966412</v>
+        <v>3.4572315942423528</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.445810970966412</v>
+        <v>3.4572315942423528</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10764,19 +10764,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>147488375.46096879</v>
+        <v>147854074.22062486</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>3.6172440380725668</v>
+        <v>3.6262130273502788</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>5.1391711884038935</v>
+        <v>5.1519138098029407</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>5.1391711884038935</v>
+        <v>5.1519138098029407</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10787,13 +10787,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42641593.205085993</v>
+        <v>42515231.785311937</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4858286054226075</v>
+        <v>1.4814255942307153</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10804,16 +10804,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-99386842.486686319</v>
+        <v>-99092325.758310884</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-3.9825572367332809</v>
+        <v>-3.9707555766887155</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.463093249333288</v>
+        <v>-3.4528309362510572</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>5459939.7691964805</v>
+        <v>6246516.6770020425</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10836,11 +10836,11 @@
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.19024933364799873</v>
+        <v>0.21765727932116763</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>0.2378116670599984</v>
+        <v>0.27207159915145951</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10878,23 +10878,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>75376296.652878836</v>
+        <v>75402014.379233241</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8486505043359853</v>
+        <v>1.8492812475524429</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6264557517590497</v>
+        <v>2.6273518752528422</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6264557517590497</v>
+        <v>2.6273518752528422</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.2830696896988121</v>
+        <v>3.2841898440660526</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10930,23 +10930,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>37688148.326439418</v>
+        <v>37701007.189616621</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.92432525216799266</v>
+        <v>0.92464062377622147</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3132278758795248</v>
+        <v>1.3136759376264211</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.4083525427035242</v>
+        <v>1.4225045772870049</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.7604406783794051</v>
+        <v>1.7781307216087561</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E67BA0-7756-4032-AFFC-7789AE549D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA07F7BA-F563-40AD-BD79-1572D9BB5830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>4.809999942779541</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>138041.53462111784</v>
+        <v>137754.55309627391</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64182839648868761</v>
+        <v>0.64144958182639911</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.5774581724867757E-2</v>
+        <v>7.5819331185151814E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4735121251297381E-2</v>
+        <v>4.4761540038259558E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8492812475524429</v>
+        <v>1.8467600073600148</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2841898440660526</v>
+        <v>3.2797123036998248</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6273518752528422</v>
+        <v>2.6237698429598599</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6273518752528422</v>
+        <v>2.6237698429598599</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8809,11 +8809,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141607557.54362279</v>
+        <v>-141396616.37810975</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7083685568739035</v>
+        <v>1.7073133583266527</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10573,17 +10573,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5774581724867757E-2</v>
+        <v>7.5819331185151814E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5774581724867757E-2</v>
+        <v>7.5819331185151814E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5774581724867757E-2</v>
+        <v>7.5819331185151814E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10624,17 +10624,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4735121251297381E-2</v>
+        <v>4.4761540038259558E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4735121251297381E-2</v>
+        <v>4.4761540038259558E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4735121251297381E-2</v>
+        <v>4.4761540038259558E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10692,14 +10692,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>6.7792058467045431</v>
+        <v>6.7806159517928908</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>6.7792058467045431</v>
+        <v>6.7806159517928908</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10717,14 +10717,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.4572315942423528</v>
+        <v>3.457668740857534</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.4572315942423528</v>
+        <v>3.457668740857534</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10764,19 +10764,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>147854074.22062486</v>
+        <v>147664536.62698621</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>3.6262130273502788</v>
+        <v>3.6215645001125405</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>5.1519138098029407</v>
+        <v>5.1453094510709194</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>5.1519138098029407</v>
+        <v>5.1453094510709194</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10787,13 +10787,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42515231.785311937</v>
+        <v>42451900.331112623</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4814255942307153</v>
+        <v>1.4792188360118146</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10804,16 +10804,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-99092325.758310884</v>
+        <v>-98944716.04699716</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-3.9707555766887155</v>
+        <v>-3.9648406677400452</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4528309362510572</v>
+        <v>-3.4476875371652569</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>6246516.6770020425</v>
+        <v>6267920.2488764226</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10836,11 +10836,11 @@
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.21765727932116763</v>
+        <v>0.21840307789384805</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>0.27207159915145951</v>
+        <v>0.27300384736731009</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10878,23 +10878,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>75402014.379233241</v>
+        <v>75299214.121298119</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8492812475524429</v>
+        <v>1.8467600073600148</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6273518752528422</v>
+        <v>2.6237698429598599</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6273518752528422</v>
+        <v>2.6237698429598599</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.2841898440660526</v>
+        <v>3.2797123036998248</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10930,23 +10930,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>37701007.189616621</v>
+        <v>37649607.06064906</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.92464062377622147</v>
+        <v>0.92338000368000739</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3136759376264211</v>
+        <v>1.31188492147993</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.4225045772870049</v>
+        <v>1.421086460426854</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.7781307216087561</v>
+        <v>1.7763580755335675</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA07F7BA-F563-40AD-BD79-1572D9BB5830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9417E6-2AA9-AD4C-90B1-FBC7E095B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -896,18 +907,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1374,7 +1385,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1430,8 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,14 +1465,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,7 +1607,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,13 +1691,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,7 +1739,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1772,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1802,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1839,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,13 +1859,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,13 +1877,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1967,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1983,20 +1994,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2375,19 +2386,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2396,7 +2407,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2411,7 +2422,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2425,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>4.8000001907348633</v>
+        <v>4.6599998474121094</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2451,7 +2462,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2466,13 +2477,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>137754.55309627391</v>
+        <v>133736.70227098087</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2515,15 +2526,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2568,8 +2579,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2614,8 +2625,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2642,10 +2653,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2656,7 +2667,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2681,10 +2692,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64144958182639911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.62258180782392436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2697,10 +2708,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.5819331185151814E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.8117088665121098E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>0.59037107474545347</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2729,11 +2740,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4761540038259558E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.611806959121343E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2755,923 +2766,923 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8467600073600148</v>
+        <v>1.2254002933088224</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2797123036998248</v>
+        <v>3.3019016342620033</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6237698429598599</v>
+        <v>2.6415213074096027</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6237698429598599</v>
+        <v>2.6415213074096027</v>
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3737,20 +3748,20 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>236</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>237</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>238</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>28698864088</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>239</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>241</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>240</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3887,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3945,7 +3956,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +3976,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3985,7 +3996,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4005,7 +4016,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4021,7 +4032,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4041,7 +4052,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4061,7 +4072,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4081,7 +4092,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4119,7 +4130,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4137,7 +4148,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4155,7 +4166,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4184,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4191,7 +4202,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4209,7 +4220,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4238,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4245,7 +4256,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4263,7 +4274,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4281,7 +4292,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4307,7 +4318,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4319,7 +4330,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4332,7 +4343,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4344,7 +4355,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4356,7 +4367,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4369,7 +4380,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4381,7 +4392,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4394,7 +4405,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4423,7 +4434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4436,7 +4447,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4449,7 +4460,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4462,7 +4473,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4475,7 +4486,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4488,7 +4499,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4501,7 +4512,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4513,7 +4524,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4527,7 +4538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4569,7 +4580,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4582,7 +4593,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4594,7 +4605,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4607,7 +4618,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4619,13 +4630,13 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>12970041</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>13416</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
@@ -4649,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
@@ -4657,7 +4668,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4676,7 @@
         <v>255569971</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>6315552</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -4681,19 +4692,19 @@
         <v>1694399</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>24023311</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>242</v>
       </c>
@@ -4709,28 +4720,28 @@
         <v>160389894</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4783,7 +4794,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4791,7 +4802,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4799,7 +4810,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4824,7 +4835,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4853,7 +4864,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4875,7 +4886,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4925,7 +4936,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4976,7 +4987,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -5027,7 +5038,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -5078,7 +5089,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5129,7 +5140,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5180,7 +5191,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5231,7 +5242,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5282,7 +5293,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5333,7 +5344,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5384,7 +5395,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5435,7 +5446,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5486,7 +5497,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5537,7 +5548,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5588,7 +5599,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5639,7 +5650,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5690,7 +5701,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5741,7 +5752,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5792,7 +5803,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5843,7 +5854,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5894,7 +5905,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5945,7 +5956,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5996,7 +6007,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -6047,7 +6058,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -6098,7 +6109,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6149,7 +6160,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6200,7 +6211,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6251,7 +6262,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6302,7 +6313,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6353,7 +6364,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6404,7 +6415,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6455,7 +6466,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6506,7 +6517,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6557,7 +6568,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6608,7 +6619,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6659,7 +6670,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6710,7 +6721,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6728,7 +6739,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6779,7 +6790,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6830,7 +6841,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6881,7 +6892,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6932,7 +6943,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6983,7 +6994,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -7034,7 +7045,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -7085,7 +7096,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -7103,7 +7114,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7154,7 +7165,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7205,7 +7216,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7222,7 +7233,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7272,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7322,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7372,7 +7383,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7422,1260 +7433,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8719,7 +8730,7 @@
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8727,11 +8738,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8747,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8771,7 +8782,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8787,7 +8798,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8802,18 +8813,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141396616.37810975</v>
+        <v>-141432678.04964137</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7073133583266527</v>
+        <v>1.7074937509177293</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8827,7 +8838,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8850,13 +8861,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8876,7 +8887,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8901,7 +8912,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8929,7 +8940,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8957,7 +8968,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8985,7 +8996,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -9013,7 +9024,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -9040,7 +9051,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -9062,7 +9073,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -9084,7 +9095,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9105,7 +9116,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9130,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9157,7 +9168,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9178,7 +9189,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9204,7 +9215,7 @@
         <v>242576846</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9213,7 +9224,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9235,7 +9246,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9264,7 +9275,7 @@
         <v>0.66028306373286705</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9297,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9330,7 +9341,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9360,7 +9371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9372,7 +9383,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9398,7 +9409,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9425,7 +9436,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9452,7 +9463,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9482,7 +9493,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9509,7 +9520,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9535,7 +9546,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9562,7 +9573,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9589,7 +9600,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9610,7 +9621,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9631,7 +9642,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9652,7 +9663,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9673,7 +9684,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9699,7 +9710,7 @@
         <v>16013360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9708,7 +9719,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9727,7 +9738,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9746,7 +9757,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9776,7 +9787,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9806,7 +9817,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9833,7 +9844,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9860,20 +9871,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9911,7 +9922,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9920,7 +9931,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9931,7 +9942,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9946,7 +9957,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9962,7 +9973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9977,7 +9988,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9986,7 +9997,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -10000,7 +10011,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -10021,7 +10032,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -10042,7 +10053,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -10063,7 +10074,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -10078,7 +10089,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -10099,7 +10110,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10109,7 +10120,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10123,7 +10134,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10144,7 +10155,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10159,7 +10170,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10180,7 +10191,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10202,7 +10213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -10221,7 +10232,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10242,7 +10253,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10272,7 +10283,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10293,7 +10304,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10323,7 +10334,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10344,7 +10355,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10374,7 +10385,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10404,7 +10415,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10435,7 +10446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10476,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10495,7 +10506,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10516,7 +10527,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10546,7 +10557,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10567,28 +10578,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5819331185151814E-2</v>
+        <v>7.8117088665121098E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5819331185151814E-2</v>
+        <v>7.8117088665121098E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5819331185151814E-2</v>
+        <v>7.8117088665121098E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10618,32 +10629,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>246</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4761540038259558E-2</v>
+        <v>4.611806959121343E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4761540038259558E-2</v>
+        <v>4.611806959121343E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4761540038259558E-2</v>
+        <v>4.611806959121343E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10653,7 +10664,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10675,7 +10686,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10692,24 +10703,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>6.7806159517928908</v>
+        <v>6.8533368350695651</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>6.7806159517928908</v>
+        <v>6.8533368350695651</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10717,22 +10728,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.457668740857534</v>
+        <v>3.4801744786969238</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.457668740857534</v>
+        <v>3.4801744786969238</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10758,73 +10769,73 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>147664536.62698621</v>
+        <v>149286276.28847602</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>3.6215645001125405</v>
+        <v>2.413120669450711</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>5.1453094510709194</v>
+        <v>5.2018182960383381</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>5.1453094510709194</v>
+        <v>5.2018182960383381</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42451900.331112623</v>
+        <v>42462727.227291942</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4792188360118146</v>
+        <v>1.479596094712581</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-98944716.04699716</v>
+        <v>-98969950.822349444</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-3.9648406677400452</v>
+        <v>-3.965851857296752</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4476875371652569</v>
+        <v>-3.4485668324319585</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>6267920.2488764226</v>
+        <v>7853598.2388346344</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10836,19 +10847,19 @@
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.21840307789384805</v>
+        <v>0.27365536889379882</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>0.27300384736731009</v>
+        <v>0.34206921111724853</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10872,37 +10883,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>75299214.121298119</v>
+        <v>75808660.986904249</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8467600073600148</v>
+        <v>1.2254002933088224</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6237698429598599</v>
+        <v>2.6415213074096027</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6237698429598599</v>
+        <v>2.6415213074096027</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.2797123036998248</v>
+        <v>3.3019016342620033</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10924,36 +10935,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>37649607.06064906</v>
+        <v>37904330.493452124</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.92338000368000739</v>
+        <v>0.61270014665441119</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.31188492147993</v>
+        <v>1.3207606537048013</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.421086460426854</v>
+        <v>1.4575883381517007</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.7763580755335675</v>
+        <v>1.8219854226896259</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
